--- a/biology/Histoire de la zoologie et de la botanique/Henri_Milne_Edwards/Henri_Milne_Edwards.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Milne_Edwards/Henri_Milne_Edwards.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Milne Edwards (parfois écrit Milne-Edwards[1]), né le 23 octobre 1800 à Bruges[2] et mort le 29 juillet 1885 à Paris 5e, est un zoologiste français. Il fut d'abord médecin.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Milne Edwards (parfois écrit Milne-Edwards), né le 23 octobre 1800 à Bruges et mort le 29 juillet 1885 à Paris 5e, est un zoologiste français. Il fut d'abord médecin.
 </t>
         </is>
       </c>
@@ -513,17 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse, médecine et zoologie
-Milne Edwards est le fils cadet de William Edwards, riche planteur de la Jamaïque, et de sa seconde femme, Élisabeth Vaux, Française. Il est notamment élevé par ses sœurs et ses frères. Son père, qui aide des Britanniques à revenir dans leur pays, est arrêté par les troupes de Napoléon. L'enfant est alors conduit à Paris par son frère aîné, William Frédéric Edwards[3],[4], qui le prend en charge. La chute de Napoléon permet la libération de leur père et la réunion de la famille à Paris.
-Milne Edwards étudie la médecine[5]. Il obtient son doctorat en 1823 et se marie la même année avec Laura Trézel, avec qui il aura neuf enfants, dont Alphonse Milne-Edwards (1835–1900), futur zoologiste.
-D'abord riche, il devient en 1825 obligé de subvenir aux besoins de sa famille[6]. Il se livre quelque temps à la pratique médicale et publie plusieurs ouvrages de vulgarisation. Il enseigne un temps les sciences naturelles au collège royal Henri-IV.
+          <t>Jeunesse, médecine et zoologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Milne Edwards est le fils cadet de William Edwards, riche planteur de la Jamaïque, et de sa seconde femme, Élisabeth Vaux, Française. Il est notamment élevé par ses sœurs et ses frères. Son père, qui aide des Britanniques à revenir dans leur pays, est arrêté par les troupes de Napoléon. L'enfant est alors conduit à Paris par son frère aîné, William Frédéric Edwards qui le prend en charge. La chute de Napoléon permet la libération de leur père et la réunion de la famille à Paris.
+Milne Edwards étudie la médecine. Il obtient son doctorat en 1823 et se marie la même année avec Laura Trézel, avec qui il aura neuf enfants, dont Alphonse Milne-Edwards (1835–1900), futur zoologiste.
+D'abord riche, il devient en 1825 obligé de subvenir aux besoins de sa famille. Il se livre quelque temps à la pratique médicale et publie plusieurs ouvrages de vulgarisation. Il enseigne un temps les sciences naturelles au collège royal Henri-IV.
 Il publie en 1828 ses Recherches sur les crustacés, qui sont récompensées par le prix Montyon de physiologie expérimentale de l'Académie des sciences.
 Il suit les cours de Georges Cuvier et se lie d'amitié avec Jean Victor Audouin. C'est avec ce dernier qu'il réalise entre 1826 et 1828 une étude extrêmement détaillée de la faune marine côtière des environs de Granville en Normandie.
-En 1832 il pose ses derniers gestes comme médecin, en se dévouant à Marseille lors de la deuxième pandémie de choléra[6].
-Zoologie
-En 1832, Henri Milne Edwards devient professeur d'hygiène et d'histoire naturelle à l’École centrale des arts et manufactures. Il obtient le doctorat ès sciences naturelles devant la faculté des sciences de Paris en 1837. À la mort d'Audouin en 1841, il est nommé à la chaire d'entomologie du Muséum national d'histoire naturelle[7]. Il visite en 1844 les rivages d'Italie et de Sicile avec deux futurs professeurs du muséum, Armand de Quatrefages et Émile Blanchard. Lorsque Jean-Baptiste Dumas devient ministre en 1849, il lui succède au décanat. En 1862, il abandonne la chaire d'entomologie pour succéder à Isidore Geoffroy Saint-Hilaire à la chaire de mammalogie et d'ornithologie du muséum. Il est aussi jusqu'à sa mort doyen de la faculté des sciences de Paris et professeur de zoologie, anatomie et physiologie.
-La plupart de ses travaux sont publiés dans les Annales des sciences naturelles, publication dont il dirige la partie consacrée à la zoologie à partir de 1834. Parmi ses autres ouvrages, il faut mentionner son Histoire naturelle des crustacés (trois volumes, 1837–1841), longtemps demeurée un ouvrage de référence ; une Histoire naturelle des coralliaires (1858–1860) ; et surtout les importantes Leçons sur la physiologie et l'anatomie comparée de l'homme et des animaux (14 volumes, 1857–1881).
-En 1848, il devient membre étranger de la Royal Society, qui lui décerne en 1856 la médaille Copley. Il était grand officier de la Légion d'honneur[8] et avait reçu la croix Pour le Mérite[9].
+En 1832 il pose ses derniers gestes comme médecin, en se dévouant à Marseille lors de la deuxième pandémie de choléra.
 </t>
         </is>
       </c>
@@ -549,16 +562,60 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Zoologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1832, Henri Milne Edwards devient professeur d'hygiène et d'histoire naturelle à l’École centrale des arts et manufactures. Il obtient le doctorat ès sciences naturelles devant la faculté des sciences de Paris en 1837. À la mort d'Audouin en 1841, il est nommé à la chaire d'entomologie du Muséum national d'histoire naturelle. Il visite en 1844 les rivages d'Italie et de Sicile avec deux futurs professeurs du muséum, Armand de Quatrefages et Émile Blanchard. Lorsque Jean-Baptiste Dumas devient ministre en 1849, il lui succède au décanat. En 1862, il abandonne la chaire d'entomologie pour succéder à Isidore Geoffroy Saint-Hilaire à la chaire de mammalogie et d'ornithologie du muséum. Il est aussi jusqu'à sa mort doyen de la faculté des sciences de Paris et professeur de zoologie, anatomie et physiologie.
+La plupart de ses travaux sont publiés dans les Annales des sciences naturelles, publication dont il dirige la partie consacrée à la zoologie à partir de 1834. Parmi ses autres ouvrages, il faut mentionner son Histoire naturelle des crustacés (trois volumes, 1837–1841), longtemps demeurée un ouvrage de référence ; une Histoire naturelle des coralliaires (1858–1860) ; et surtout les importantes Leçons sur la physiologie et l'anatomie comparée de l'homme et des animaux (14 volumes, 1857–1881).
+En 1848, il devient membre étranger de la Royal Society, qui lui décerne en 1856 la médaille Copley. Il était grand officier de la Légion d'honneur et avait reçu la croix Pour le Mérite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henri_Milne_Edwards</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Milne_Edwards</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sélection
-Les ouvrages de Milne Edwards ont paru en français, en anglais et en allemand.
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les ouvrages de Milne Edwards ont paru en français, en anglais et en allemand.
 (avec Pierre Vavasseur) Manuel de matière médicale ou description abrégée des médicaments, Paris, Compère, 1826.
 Manuel d'anatomie chirurgicale ou Description du corps humain, divisé en régions, Paris, Compère, 1827.
-A manual of surgical anatomy …, trad. et notes de William Coulson ; révision, correction et notes supplémentaires de James Webster[10], Philadelphie, Desilver, 1828.
+A manual of surgical anatomy …, trad. et notes de William Coulson ; révision, correction et notes supplémentaires de James Webster, Philadelphie, Desilver, 1828.
 (avec Jean-Victor Audouin) Recherches pour servir à l'histoire naturelle du littoral de la France, Paris, Crochard, 1832–1834.
 (avec d'autres) Cours élémentaire d'histoire naturelle, 1834. — En ligne, l'édition de 1834.
 (avec Pierre Vavasseur) Nouveau formulaire pratique des hôpitaux, Paris, Crochard, 1833.
@@ -587,9 +644,43 @@
 « Observations sur l'hippopotame de [sic] Libéria »
 « Études pour servir à l'histoire de la faune mammalogique de la Chine »
 « Mémoire sur la faune mammalogique du Tibet oriental, et principalement de la principauté de Moupin ».
-vol. 2 : atlas — 105 Planches.
-Listes de publications en ligne
-Sur le site de Biodiversity Heritage Library.
+vol. 2 : atlas — 105 Planches.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Henri_Milne_Edwards</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Milne_Edwards</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Listes de publications en ligne</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sur le site de Biodiversity Heritage Library.
 Sur le site de The Online Books Page.</t>
         </is>
       </c>
